--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.963116779563</v>
+        <v>3.299372</v>
       </c>
       <c r="H2">
-        <v>2.963116779563</v>
+        <v>9.898116</v>
       </c>
       <c r="I2">
-        <v>0.09625076001709176</v>
+        <v>0.0920143984019839</v>
       </c>
       <c r="J2">
-        <v>0.09625076001709176</v>
+        <v>0.09547380931771403</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.98290405495409</v>
+        <v>0.3501783333333333</v>
       </c>
       <c r="N2">
-        <v>1.98290405495409</v>
+        <v>1.050535</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1096531422902788</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1134141042284616</v>
       </c>
       <c r="Q2">
-        <v>5.875576277497976</v>
+        <v>1.155368588006667</v>
       </c>
       <c r="R2">
-        <v>5.875576277497976</v>
+        <v>10.39831729206</v>
       </c>
       <c r="S2">
-        <v>0.09625076001709176</v>
+        <v>0.01008966792072714</v>
       </c>
       <c r="T2">
-        <v>0.09625076001709176</v>
+        <v>0.01082807656104749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,238 +596,1478 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.60053056074458</v>
+        <v>3.299372</v>
       </c>
       <c r="H3">
-        <v>2.60053056074458</v>
+        <v>9.898116</v>
       </c>
       <c r="I3">
-        <v>0.08447289173538895</v>
+        <v>0.0920143984019839</v>
       </c>
       <c r="J3">
-        <v>0.08447289173538895</v>
+        <v>0.09547380931771403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.98290405495409</v>
+        <v>2.24748</v>
       </c>
       <c r="N3">
-        <v>1.98290405495409</v>
+        <v>6.74244</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7037649699473766</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7279032044759564</v>
       </c>
       <c r="Q3">
-        <v>5.156602593932461</v>
+        <v>7.41527258256</v>
       </c>
       <c r="R3">
-        <v>5.156602593932461</v>
+        <v>66.73745324304001</v>
       </c>
       <c r="S3">
-        <v>0.08447289173538895</v>
+        <v>0.06475651032609814</v>
       </c>
       <c r="T3">
-        <v>0.08447289173538895</v>
+        <v>0.06949569174589046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.78382691867874</v>
+        <v>3.299372</v>
       </c>
       <c r="H4">
-        <v>8.78382691867874</v>
+        <v>9.898116</v>
       </c>
       <c r="I4">
-        <v>0.2853245685801505</v>
+        <v>0.0920143984019839</v>
       </c>
       <c r="J4">
-        <v>0.2853245685801505</v>
+        <v>0.09547380931771403</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.98290405495409</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N4">
-        <v>1.98290405495409</v>
+        <v>0.079739</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008323027707867459</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.00860849686785619</v>
       </c>
       <c r="Q4">
-        <v>17.41748601506296</v>
+        <v>0.08769620796933333</v>
       </c>
       <c r="R4">
-        <v>17.41748601506296</v>
+        <v>0.7892658717240001</v>
       </c>
       <c r="S4">
-        <v>0.2853245685801505</v>
+        <v>0.0007658383874224673</v>
       </c>
       <c r="T4">
-        <v>0.2853245685801505</v>
+        <v>0.0008218859884738403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5473091399221</v>
+        <v>3.299372</v>
       </c>
       <c r="H5">
-        <v>12.5473091399221</v>
+        <v>9.898116</v>
       </c>
       <c r="I5">
-        <v>0.4075735553915678</v>
+        <v>0.0920143984019839</v>
       </c>
       <c r="J5">
-        <v>0.4075735553915678</v>
+        <v>0.09547380931771403</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.98290405495409</v>
+        <v>0.2515683333333333</v>
       </c>
       <c r="N5">
-        <v>1.98290405495409</v>
+        <v>0.754705</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.07877488589355409</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.08147676329845377</v>
       </c>
       <c r="Q5">
-        <v>24.88011017231405</v>
+        <v>0.8300175150866667</v>
       </c>
       <c r="R5">
-        <v>24.88011017231405</v>
+        <v>7.47015763578</v>
       </c>
       <c r="S5">
-        <v>0.4075735553915678</v>
+        <v>0.007248423734680308</v>
       </c>
       <c r="T5">
-        <v>0.4075735553915678</v>
+        <v>0.007778896962981095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.299372</v>
+      </c>
+      <c r="H6">
+        <v>9.898116</v>
+      </c>
+      <c r="I6">
+        <v>0.0920143984019839</v>
+      </c>
+      <c r="J6">
+        <v>0.09547380931771403</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.317703</v>
+      </c>
+      <c r="N6">
+        <v>0.635406</v>
+      </c>
+      <c r="O6">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P6">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q6">
+        <v>1.048220382516</v>
+      </c>
+      <c r="R6">
+        <v>6.289322295096</v>
+      </c>
+      <c r="S6">
+        <v>0.009153958033055848</v>
+      </c>
+      <c r="T6">
+        <v>0.006549258059321147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.89060238959676</v>
-      </c>
-      <c r="H6">
-        <v>3.89060238959676</v>
-      </c>
-      <c r="I6">
-        <v>0.1263782242758008</v>
-      </c>
-      <c r="J6">
-        <v>0.1263782242758008</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.98290405495409</v>
-      </c>
-      <c r="N6">
-        <v>1.98290405495409</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>7.714691254545488</v>
-      </c>
-      <c r="R6">
-        <v>7.714691254545488</v>
-      </c>
-      <c r="S6">
-        <v>0.1263782242758008</v>
-      </c>
-      <c r="T6">
-        <v>0.1263782242758008</v>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.641089666666666</v>
+      </c>
+      <c r="H7">
+        <v>7.923268999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.0736559190064138</v>
+      </c>
+      <c r="J7">
+        <v>0.07642511703024642</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.050535</v>
+      </c>
+      <c r="O7">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P7">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q7">
+        <v>0.9248523776572221</v>
+      </c>
+      <c r="R7">
+        <v>8.323671398915</v>
+      </c>
+      <c r="S7">
+        <v>0.008076602967331542</v>
+      </c>
+      <c r="T7">
+        <v>0.008667686188540745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.641089666666666</v>
+      </c>
+      <c r="H8">
+        <v>7.923268999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.0736559190064138</v>
+      </c>
+      <c r="J8">
+        <v>0.07642511703024642</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.24748</v>
+      </c>
+      <c r="N8">
+        <v>6.74244</v>
+      </c>
+      <c r="O8">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P8">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q8">
+        <v>5.935796204039999</v>
+      </c>
+      <c r="R8">
+        <v>53.42216583636</v>
+      </c>
+      <c r="S8">
+        <v>0.05183645562599521</v>
+      </c>
+      <c r="T8">
+        <v>0.05563008758876635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.641089666666666</v>
+      </c>
+      <c r="H9">
+        <v>7.923268999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.0736559190064138</v>
+      </c>
+      <c r="J9">
+        <v>0.07642511703024642</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.079739</v>
+      </c>
+      <c r="O9">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P9">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q9">
+        <v>0.07019928297677777</v>
+      </c>
+      <c r="R9">
+        <v>0.631793546791</v>
+      </c>
+      <c r="S9">
+        <v>0.0006130402547388235</v>
+      </c>
+      <c r="T9">
+        <v>0.000657905380580419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.641089666666666</v>
+      </c>
+      <c r="H10">
+        <v>7.923268999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0736559190064138</v>
+      </c>
+      <c r="J10">
+        <v>0.07642511703024642</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.754705</v>
+      </c>
+      <c r="O10">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P10">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q10">
+        <v>0.6644145256272221</v>
+      </c>
+      <c r="R10">
+        <v>5.979730730645</v>
+      </c>
+      <c r="S10">
+        <v>0.00580223661511511</v>
+      </c>
+      <c r="T10">
+        <v>0.006226871170330015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.641089666666666</v>
+      </c>
+      <c r="H11">
+        <v>7.923268999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0736559190064138</v>
+      </c>
+      <c r="J11">
+        <v>0.07642511703024642</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.317703</v>
+      </c>
+      <c r="N11">
+        <v>0.635406</v>
+      </c>
+      <c r="O11">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P11">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q11">
+        <v>0.8390821103689999</v>
+      </c>
+      <c r="R11">
+        <v>5.034492662214</v>
+      </c>
+      <c r="S11">
+        <v>0.007327583543233114</v>
+      </c>
+      <c r="T11">
+        <v>0.00524256670202889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.59893466666667</v>
+      </c>
+      <c r="H12">
+        <v>31.796804</v>
+      </c>
+      <c r="I12">
+        <v>0.2955879473594566</v>
+      </c>
+      <c r="J12">
+        <v>0.3067009925938155</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.050535</v>
+      </c>
+      <c r="O12">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P12">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q12">
+        <v>3.711517276682222</v>
+      </c>
+      <c r="R12">
+        <v>33.40365549014</v>
+      </c>
+      <c r="S12">
+        <v>0.03241214725109794</v>
+      </c>
+      <c r="T12">
+        <v>0.03478421834100763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.59893466666667</v>
+      </c>
+      <c r="H13">
+        <v>31.796804</v>
+      </c>
+      <c r="I13">
+        <v>0.2955879473594566</v>
+      </c>
+      <c r="J13">
+        <v>0.3067009925938155</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.24748</v>
+      </c>
+      <c r="N13">
+        <v>6.74244</v>
+      </c>
+      <c r="O13">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P13">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q13">
+        <v>23.82089368464</v>
+      </c>
+      <c r="R13">
+        <v>214.38804316176</v>
+      </c>
+      <c r="S13">
+        <v>0.2080244428902348</v>
+      </c>
+      <c r="T13">
+        <v>0.2232486353249949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.59893466666667</v>
+      </c>
+      <c r="H14">
+        <v>31.796804</v>
+      </c>
+      <c r="I14">
+        <v>0.2955879473594566</v>
+      </c>
+      <c r="J14">
+        <v>0.3067009925938155</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.079739</v>
+      </c>
+      <c r="O14">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P14">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q14">
+        <v>0.2817161504617778</v>
+      </c>
+      <c r="R14">
+        <v>2.535445354156</v>
+      </c>
+      <c r="S14">
+        <v>0.002460186675984426</v>
+      </c>
+      <c r="T14">
+        <v>0.002640234534112245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.59893466666667</v>
+      </c>
+      <c r="H15">
+        <v>31.796804</v>
+      </c>
+      <c r="I15">
+        <v>0.2955879473594566</v>
+      </c>
+      <c r="J15">
+        <v>0.3067009925938155</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.754705</v>
+      </c>
+      <c r="O15">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P15">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q15">
+        <v>2.666356329202222</v>
+      </c>
+      <c r="R15">
+        <v>23.99720696282</v>
+      </c>
+      <c r="S15">
+        <v>0.02328490682475107</v>
+      </c>
+      <c r="T15">
+        <v>0.02498900417696713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.59893466666667</v>
+      </c>
+      <c r="H16">
+        <v>31.796804</v>
+      </c>
+      <c r="I16">
+        <v>0.2955879473594566</v>
+      </c>
+      <c r="J16">
+        <v>0.3067009925938155</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.317703</v>
+      </c>
+      <c r="N16">
+        <v>0.635406</v>
+      </c>
+      <c r="O16">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P16">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q16">
+        <v>3.367313340404</v>
+      </c>
+      <c r="R16">
+        <v>20.203880042424</v>
+      </c>
+      <c r="S16">
+        <v>0.02940626371738848</v>
+      </c>
+      <c r="T16">
+        <v>0.02103890021673366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.419975</v>
+      </c>
+      <c r="H17">
+        <v>46.259925</v>
+      </c>
+      <c r="I17">
+        <v>0.4300393296053406</v>
+      </c>
+      <c r="J17">
+        <v>0.446207263938082</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.050535</v>
+      </c>
+      <c r="O17">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P17">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q17">
+        <v>5.399741145541666</v>
+      </c>
+      <c r="R17">
+        <v>48.597670309875</v>
+      </c>
+      <c r="S17">
+        <v>0.04715516379963051</v>
+      </c>
+      <c r="T17">
+        <v>0.05060619713977031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>15.419975</v>
+      </c>
+      <c r="H18">
+        <v>46.259925</v>
+      </c>
+      <c r="I18">
+        <v>0.4300393296053406</v>
+      </c>
+      <c r="J18">
+        <v>0.446207263938082</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.24748</v>
+      </c>
+      <c r="N18">
+        <v>6.74244</v>
+      </c>
+      <c r="O18">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P18">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q18">
+        <v>34.656085413</v>
+      </c>
+      <c r="R18">
+        <v>311.904768717</v>
+      </c>
+      <c r="S18">
+        <v>0.3026466158758925</v>
+      </c>
+      <c r="T18">
+        <v>0.3247956972809787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>15.419975</v>
+      </c>
+      <c r="H19">
+        <v>46.259925</v>
+      </c>
+      <c r="I19">
+        <v>0.4300393296053406</v>
+      </c>
+      <c r="J19">
+        <v>0.446207263938082</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.079739</v>
+      </c>
+      <c r="O19">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P19">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q19">
+        <v>0.4098577955083334</v>
+      </c>
+      <c r="R19">
+        <v>3.688720159575</v>
+      </c>
+      <c r="S19">
+        <v>0.003579229255777997</v>
+      </c>
+      <c r="T19">
+        <v>0.003841173834025659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>15.419975</v>
+      </c>
+      <c r="H20">
+        <v>46.259925</v>
+      </c>
+      <c r="I20">
+        <v>0.4300393296053406</v>
+      </c>
+      <c r="J20">
+        <v>0.446207263938082</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.754705</v>
+      </c>
+      <c r="O20">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P20">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q20">
+        <v>3.879177410791667</v>
+      </c>
+      <c r="R20">
+        <v>34.912596697125</v>
+      </c>
+      <c r="S20">
+        <v>0.03387629911940121</v>
+      </c>
+      <c r="T20">
+        <v>0.03635552362593379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>15.419975</v>
+      </c>
+      <c r="H21">
+        <v>46.259925</v>
+      </c>
+      <c r="I21">
+        <v>0.4300393296053406</v>
+      </c>
+      <c r="J21">
+        <v>0.446207263938082</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.317703</v>
+      </c>
+      <c r="N21">
+        <v>0.635406</v>
+      </c>
+      <c r="O21">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P21">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q21">
+        <v>4.898972317425001</v>
+      </c>
+      <c r="R21">
+        <v>29.39383390455</v>
+      </c>
+      <c r="S21">
+        <v>0.04278202155463839</v>
+      </c>
+      <c r="T21">
+        <v>0.03060867205737353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.897756</v>
+      </c>
+      <c r="H22">
+        <v>7.795512</v>
+      </c>
+      <c r="I22">
+        <v>0.1087024056268051</v>
+      </c>
+      <c r="J22">
+        <v>0.075192817120142</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.3501783333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.050535</v>
+      </c>
+      <c r="O22">
+        <v>0.1096531422902788</v>
+      </c>
+      <c r="P22">
+        <v>0.1134141042284616</v>
+      </c>
+      <c r="Q22">
+        <v>1.36490969982</v>
+      </c>
+      <c r="R22">
+        <v>8.189458198920001</v>
+      </c>
+      <c r="S22">
+        <v>0.01191956035149166</v>
+      </c>
+      <c r="T22">
+        <v>0.008527925998095438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.897756</v>
+      </c>
+      <c r="H23">
+        <v>7.795512</v>
+      </c>
+      <c r="I23">
+        <v>0.1087024056268051</v>
+      </c>
+      <c r="J23">
+        <v>0.075192817120142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.24748</v>
+      </c>
+      <c r="N23">
+        <v>6.74244</v>
+      </c>
+      <c r="O23">
+        <v>0.7037649699473766</v>
+      </c>
+      <c r="P23">
+        <v>0.7279032044759564</v>
+      </c>
+      <c r="Q23">
+        <v>8.760128654880001</v>
+      </c>
+      <c r="R23">
+        <v>52.56077192928</v>
+      </c>
+      <c r="S23">
+        <v>0.07650094522915604</v>
+      </c>
+      <c r="T23">
+        <v>0.05473309253532591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.897756</v>
+      </c>
+      <c r="H24">
+        <v>7.795512</v>
+      </c>
+      <c r="I24">
+        <v>0.1087024056268051</v>
+      </c>
+      <c r="J24">
+        <v>0.075192817120142</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.079739</v>
+      </c>
+      <c r="O24">
+        <v>0.008323027707867459</v>
+      </c>
+      <c r="P24">
+        <v>0.00860849686785619</v>
+      </c>
+      <c r="Q24">
+        <v>0.103601055228</v>
+      </c>
+      <c r="R24">
+        <v>0.621606331368</v>
+      </c>
+      <c r="S24">
+        <v>0.0009047331339437465</v>
+      </c>
+      <c r="T24">
+        <v>0.0006472971306640257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.897756</v>
+      </c>
+      <c r="H25">
+        <v>7.795512</v>
+      </c>
+      <c r="I25">
+        <v>0.1087024056268051</v>
+      </c>
+      <c r="J25">
+        <v>0.075192817120142</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.2515683333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.754705</v>
+      </c>
+      <c r="O25">
+        <v>0.07877488589355409</v>
+      </c>
+      <c r="P25">
+        <v>0.08147676329845377</v>
+      </c>
+      <c r="Q25">
+        <v>0.98055198066</v>
+      </c>
+      <c r="R25">
+        <v>5.88331188396</v>
+      </c>
+      <c r="S25">
+        <v>0.008563019599606404</v>
+      </c>
+      <c r="T25">
+        <v>0.006126467362241732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.897756</v>
+      </c>
+      <c r="H26">
+        <v>7.795512</v>
+      </c>
+      <c r="I26">
+        <v>0.1087024056268051</v>
+      </c>
+      <c r="J26">
+        <v>0.075192817120142</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.317703</v>
+      </c>
+      <c r="N26">
+        <v>0.635406</v>
+      </c>
+      <c r="O26">
+        <v>0.09948397416092308</v>
+      </c>
+      <c r="P26">
+        <v>0.06859743112927212</v>
+      </c>
+      <c r="Q26">
+        <v>1.238328774468</v>
+      </c>
+      <c r="R26">
+        <v>4.953315097872</v>
+      </c>
+      <c r="S26">
+        <v>0.01081414731260726</v>
+      </c>
+      <c r="T26">
+        <v>0.005158034093814895</v>
       </c>
     </row>
   </sheetData>
